--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/US Freight.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/US Freight.xlsx
@@ -19,11 +19,12 @@
     <definedName name="_lu2">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="158">
   <si>
     <t>FEDEX BUSINESS</t>
   </si>
@@ -496,13 +497,16 @@
   </si>
   <si>
     <t>Revenue+Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save Label </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -604,12 +608,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -743,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1211,239 +1209,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1452,42 +1470,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1547,7 +1565,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1560,29 +1578,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1594,223 +1612,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="17" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="23" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="363">
@@ -2529,59 +2556,60 @@
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:EO12"/>
+  <dimension ref="A1:EP12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" style="5" customWidth="1"/>
-    <col min="5" max="8" width="20.7109375" style="5"/>
-    <col min="9" max="9" width="36.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="28" width="20.7109375" style="5"/>
-    <col min="29" max="29" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="49" width="20.7109375" style="5"/>
-    <col min="50" max="50" width="34" style="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="67" width="20.7109375" style="5"/>
-    <col min="68" max="73" width="22.140625" style="5" customWidth="1"/>
-    <col min="74" max="74" width="25.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="25.5703125" style="5" customWidth="1"/>
-    <col min="76" max="86" width="22.140625" style="5" customWidth="1"/>
-    <col min="87" max="87" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="43" style="5" bestFit="1" customWidth="1"/>
-    <col min="89" max="90" width="20.7109375" style="5"/>
-    <col min="91" max="91" width="30.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="20.7109375" style="5"/>
-    <col min="101" max="101" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="102" max="114" width="20.7109375" style="5"/>
-    <col min="115" max="16384" width="20.7109375" style="4"/>
+    <col min="1" max="1" width="20.7109375" style="4"/>
+    <col min="2" max="2" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="5" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="5"/>
+    <col min="10" max="10" width="36.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="29" width="20.7109375" style="5"/>
+    <col min="30" max="30" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="50" width="20.7109375" style="5"/>
+    <col min="51" max="51" width="34" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="68" width="20.7109375" style="5"/>
+    <col min="69" max="74" width="22.140625" style="5" customWidth="1"/>
+    <col min="75" max="75" width="25.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="25.5703125" style="5" customWidth="1"/>
+    <col min="77" max="87" width="22.140625" style="5" customWidth="1"/>
+    <col min="88" max="88" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="43" style="5" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="20.7109375" style="5"/>
+    <col min="92" max="92" width="30.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="93" max="101" width="20.7109375" style="5"/>
+    <col min="102" max="102" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="103" max="115" width="20.7109375" style="5"/>
+    <col min="116" max="16384" width="20.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:145" s="20" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
+    <row r="1" spans="1:146" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:146" s="20" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="B2" s="21"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>43</v>
@@ -2592,29 +2620,29 @@
       <c r="J2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>101</v>
+      <c r="K2" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="L2" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>154</v>
+      <c r="M2" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="22" t="s">
+      <c r="O2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>74</v>
       </c>
       <c r="Q2" s="22" t="s">
         <v>74</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>105</v>
@@ -2628,22 +2656,22 @@
       <c r="V2" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="22" t="s">
+      <c r="W2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>44</v>
       </c>
       <c r="Y2" s="22" t="s">
         <v>44</v>
       </c>
       <c r="Z2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="23" t="s">
         <v>106</v>
       </c>
       <c r="AC2" s="22" t="s">
@@ -2653,34 +2681,34 @@
         <v>106</v>
       </c>
       <c r="AE2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF2" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="AF2" s="22" t="s">
-        <v>109</v>
       </c>
       <c r="AG2" s="22" t="s">
         <v>109</v>
       </c>
       <c r="AH2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AJ2" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="AJ2" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="AK2" s="17" t="s">
         <v>131</v>
       </c>
       <c r="AL2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM2" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AN2" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="AN2" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="AO2" s="17" t="s">
         <v>134</v>
@@ -2689,22 +2717,22 @@
         <v>134</v>
       </c>
       <c r="AQ2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AS2" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="AS2" s="17" t="s">
+      <c r="AT2" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AU2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AU2" s="17" t="s">
+      <c r="AV2" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="AW2" s="17" t="s">
         <v>138</v>
@@ -2713,13 +2741,13 @@
         <v>138</v>
       </c>
       <c r="AY2" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AZ2" s="17" t="s">
         <v>139</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BB2" s="17" t="s">
         <v>140</v>
@@ -2731,7 +2759,7 @@
         <v>140</v>
       </c>
       <c r="BE2" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BF2" s="17" t="s">
         <v>138</v>
@@ -2740,13 +2768,13 @@
         <v>138</v>
       </c>
       <c r="BH2" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BI2" s="17" t="s">
         <v>139</v>
       </c>
       <c r="BJ2" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BK2" s="17" t="s">
         <v>140</v>
@@ -2758,7 +2786,7 @@
         <v>140</v>
       </c>
       <c r="BN2" s="17" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="BO2" s="17" t="s">
         <v>129</v>
@@ -2770,20 +2798,22 @@
         <v>129</v>
       </c>
       <c r="BR2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BS2" s="17" t="s">
+      <c r="BT2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="BT2" s="17" t="s">
+      <c r="BU2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="BU2" s="18" t="s">
+      <c r="BV2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="BX2" s="19"/>
-      <c r="CF2" s="19"/>
-      <c r="CQ2" s="19"/>
+      <c r="BY2" s="19"/>
+      <c r="CG2" s="19"/>
       <c r="CR2" s="19"/>
       <c r="CS2" s="19"/>
       <c r="CT2" s="19"/>
@@ -2799,375 +2829,377 @@
       <c r="DD2" s="19"/>
       <c r="DE2" s="19"/>
       <c r="DF2" s="19"/>
+      <c r="DG2" s="19"/>
     </row>
-    <row r="3" spans="1:145" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:146" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AP3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AR3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AS3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AT3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AU3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AU3" s="7" t="s">
+      <c r="AV3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AW3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="7" t="s">
+      <c r="AX3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AX3" s="7" t="s">
+      <c r="AY3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="AZ3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="BA3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BA3" s="7" t="s">
+      <c r="BB3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BB3" s="7" t="s">
+      <c r="BC3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BD3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BD3" s="7" t="s">
+      <c r="BE3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BF3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="BF3" s="7" t="s">
+      <c r="BG3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="BG3" s="7" t="s">
+      <c r="BH3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BI3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="BI3" s="7" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BJ3" s="7" t="s">
+      <c r="BK3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BL3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BL3" s="7" t="s">
+      <c r="BM3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BM3" s="7" t="s">
+      <c r="BN3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="BN3" s="8" t="s">
+      <c r="BO3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BO3" s="8" t="s">
+      <c r="BP3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="8" t="s">
+      <c r="BQ3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BQ3" s="8" t="s">
+      <c r="BR3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="BR3" s="7" t="s">
+      <c r="BS3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="BS3" s="7" t="s">
+      <c r="BT3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BT3" s="7" t="s">
+      <c r="BU3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="BU3" s="9" t="s">
+      <c r="BV3" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:145" s="56" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:146" s="56" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="C4" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="D4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="E4" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="F4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="G4" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="62"/>
+      <c r="I4" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="J4" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="K4" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="L4" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="62">
+      <c r="M4" s="62">
         <v>150</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="N4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="62">
+      <c r="O4" s="62">
         <v>2560</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="P4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="Q4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="R4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="S4" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="T4" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="T4" s="62" t="s">
+      <c r="U4" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="U4" s="62">
+      <c r="V4" s="62">
         <v>72601</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="W4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="62" t="s">
+      <c r="X4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="62" t="s">
+      <c r="Y4" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="62">
+      <c r="Z4" s="62">
         <v>1234567890</v>
       </c>
-      <c r="Z4" s="62" t="s">
+      <c r="AA4" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AA4" s="62" t="s">
+      <c r="AB4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="62" t="s">
+      <c r="AC4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="62">
+      <c r="AD4" s="62">
         <v>10005</v>
       </c>
-      <c r="AD4" s="62" t="s">
+      <c r="AE4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AE4" s="62" t="s">
+      <c r="AF4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" s="62" t="s">
+      <c r="AG4" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AG4" s="62" t="s">
+      <c r="AH4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AH4" s="62" t="s">
+      <c r="AI4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="62">
+      <c r="AJ4" s="62">
         <v>630081440</v>
       </c>
-      <c r="AJ4" s="62" t="s">
+      <c r="AK4" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="AK4" s="62" t="s">
+      <c r="AL4" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="AL4" s="62" t="s">
+      <c r="AM4" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="AM4" s="62" t="s">
+      <c r="AN4" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="AN4" s="62" t="s">
+      <c r="AO4" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="AO4" s="62">
+      <c r="AP4" s="62">
         <v>72601</v>
       </c>
-      <c r="AP4" s="62" t="s">
+      <c r="AQ4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AQ4" s="62" t="s">
+      <c r="AR4" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62" t="s">
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AT4" s="62">
+      <c r="AU4" s="62">
         <v>2560</v>
       </c>
-      <c r="AU4" s="62">
+      <c r="AV4" s="62">
         <v>1</v>
       </c>
-      <c r="AV4" s="62" t="s">
+      <c r="AW4" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AW4" s="62" t="s">
+      <c r="AX4" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="AX4" s="62">
+      <c r="AY4" s="62">
         <v>1</v>
       </c>
-      <c r="AY4" s="62" t="s">
+      <c r="AZ4" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AZ4" s="62">
+      <c r="BA4" s="62">
         <v>150</v>
-      </c>
-      <c r="BA4" s="62">
-        <v>90</v>
       </c>
       <c r="BB4" s="62">
         <v>90</v>
@@ -3175,10 +3207,12 @@
       <c r="BC4" s="62">
         <v>90</v>
       </c>
-      <c r="BD4" s="62" t="s">
+      <c r="BD4" s="62">
+        <v>90</v>
+      </c>
+      <c r="BE4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="BE4" s="62"/>
       <c r="BF4" s="62"/>
       <c r="BG4" s="62"/>
       <c r="BH4" s="62"/>
@@ -3187,33 +3221,33 @@
       <c r="BK4" s="62"/>
       <c r="BL4" s="62"/>
       <c r="BM4" s="62"/>
-      <c r="BN4" s="63" t="s">
+      <c r="BN4" s="62"/>
+      <c r="BO4" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="BO4" s="64" t="s">
+      <c r="BP4" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="BP4" s="64" t="s">
+      <c r="BQ4" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="BQ4" s="64" t="s">
+      <c r="BR4" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="BR4" s="62" t="s">
+      <c r="BS4" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="BS4" s="62">
+      <c r="BT4" s="62">
         <v>1</v>
       </c>
-      <c r="BT4" s="62">
+      <c r="BU4" s="62">
         <v>2560</v>
       </c>
-      <c r="BU4" s="65" t="s">
+      <c r="BV4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="BX4" s="57"/>
-      <c r="CF4" s="57"/>
-      <c r="CQ4" s="57"/>
+      <c r="BY4" s="57"/>
+      <c r="CG4" s="57"/>
       <c r="CR4" s="57"/>
       <c r="CS4" s="57"/>
       <c r="CT4" s="57"/>
@@ -3229,160 +3263,161 @@
       <c r="DD4" s="57"/>
       <c r="DE4" s="57"/>
       <c r="DF4" s="57"/>
+      <c r="DG4" s="57"/>
     </row>
-    <row r="5" spans="1:145" s="10" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="68" t="s">
+    <row r="5" spans="1:146" s="10" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="76" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="F5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="G5" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="J5" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="K5" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="L5" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="52">
+      <c r="M5" s="52">
         <v>150</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="N5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="52">
+      <c r="O5" s="52">
         <v>2560</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="P5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="R5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="S5" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="T5" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="U5" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="U5" s="52">
+      <c r="V5" s="52">
         <v>72601</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="W5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="X5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="Y5" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="52">
+      <c r="Z5" s="52">
         <v>1234567890</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="AA5" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AB5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="52" t="s">
+      <c r="AC5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="52">
+      <c r="AD5" s="52">
         <v>10005</v>
       </c>
-      <c r="AD5" s="52" t="s">
+      <c r="AE5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="52" t="s">
+      <c r="AF5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AG5" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="AG5" s="52" t="s">
+      <c r="AH5" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="AH5" s="52" t="s">
+      <c r="AI5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI5" s="52">
+      <c r="AJ5" s="52">
         <v>630081440</v>
       </c>
-      <c r="AJ5" s="52" t="s">
+      <c r="AK5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="AK5" s="52" t="s">
+      <c r="AL5" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AL5" s="52" t="s">
+      <c r="AM5" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="AM5" s="52" t="s">
+      <c r="AN5" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="AN5" s="52" t="s">
+      <c r="AO5" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="AO5" s="52">
+      <c r="AP5" s="52">
         <v>72601</v>
       </c>
-      <c r="AP5" s="52" t="s">
+      <c r="AQ5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AQ5" s="52" t="s">
+      <c r="AR5" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52" t="s">
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AT5" s="52">
+      <c r="AU5" s="52">
         <v>2560</v>
       </c>
-      <c r="AU5" s="52">
+      <c r="AV5" s="52">
         <v>1</v>
       </c>
-      <c r="AV5" s="52" t="s">
+      <c r="AW5" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="AW5" s="52" t="s">
+      <c r="AX5" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="AX5" s="52">
+      <c r="AY5" s="52">
         <v>1</v>
       </c>
-      <c r="AY5" s="52" t="s">
+      <c r="AZ5" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="AZ5" s="52">
+      <c r="BA5" s="52">
         <v>150</v>
-      </c>
-      <c r="BA5" s="52">
-        <v>90</v>
       </c>
       <c r="BB5" s="52">
         <v>90</v>
@@ -3390,10 +3425,12 @@
       <c r="BC5" s="52">
         <v>90</v>
       </c>
-      <c r="BD5" s="52" t="s">
+      <c r="BD5" s="52">
+        <v>90</v>
+      </c>
+      <c r="BE5" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="BE5" s="52"/>
       <c r="BF5" s="52"/>
       <c r="BG5" s="52"/>
       <c r="BH5" s="52"/>
@@ -3402,33 +3439,33 @@
       <c r="BK5" s="52"/>
       <c r="BL5" s="52"/>
       <c r="BM5" s="52"/>
-      <c r="BN5" s="53" t="s">
+      <c r="BN5" s="52"/>
+      <c r="BO5" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="BO5" s="54" t="s">
+      <c r="BP5" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="BP5" s="54" t="s">
+      <c r="BQ5" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="BQ5" s="54" t="s">
+      <c r="BR5" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="BR5" s="52" t="s">
+      <c r="BS5" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="BS5" s="52">
+      <c r="BT5" s="52">
         <v>1</v>
       </c>
-      <c r="BT5" s="52">
+      <c r="BU5" s="52">
         <v>2560</v>
       </c>
-      <c r="BU5" s="55" t="s">
+      <c r="BV5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="BX5" s="44"/>
-      <c r="CF5" s="44"/>
-      <c r="CQ5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="CG5" s="44"/>
       <c r="CR5" s="44"/>
       <c r="CS5" s="44"/>
       <c r="CT5" s="44"/>
@@ -3444,160 +3481,161 @@
       <c r="DD5" s="44"/>
       <c r="DE5" s="44"/>
       <c r="DF5" s="44"/>
+      <c r="DG5" s="44"/>
     </row>
-    <row r="6" spans="1:145" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="39" t="s">
+    <row r="6" spans="1:146" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="76" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
         <v>400</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="11">
+      <c r="O6" s="11">
         <v>2560</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="P6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="U6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="U6" s="11">
+      <c r="V6" s="11">
         <v>72601</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="W6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="X6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Z6" s="11">
         <v>1234567890</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AA6" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AC6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AD6" s="11">
         <v>10005</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AE6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AF6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AG6" s="11">
         <v>150067600</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AH6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AI6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AJ6" s="11">
         <v>630081440</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AK6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AK6" s="11" t="s">
+      <c r="AL6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AM6" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="AN6" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="AO6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AP6" s="11">
         <v>72601</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="AQ6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="AR6" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="AS6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AS6" s="11" t="s">
+      <c r="AT6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AT6" s="11">
+      <c r="AU6" s="11">
         <v>2560</v>
       </c>
-      <c r="AU6" s="11">
+      <c r="AV6" s="11">
         <v>2</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="AW6" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="AX6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AX6" s="11">
+      <c r="AY6" s="11">
         <v>1</v>
       </c>
-      <c r="AY6" s="11" t="s">
+      <c r="AZ6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ6" s="11">
+      <c r="BA6" s="11">
         <v>150</v>
-      </c>
-      <c r="BA6" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="BB6" s="11" t="s">
         <v>153</v>
@@ -3606,62 +3644,64 @@
         <v>153</v>
       </c>
       <c r="BD6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BF6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="BF6" s="11" t="s">
+      <c r="BG6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="BG6" s="11">
+      <c r="BH6" s="11">
         <v>1</v>
       </c>
-      <c r="BH6" s="11" t="s">
+      <c r="BI6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BI6" s="11">
+      <c r="BJ6" s="11">
         <v>250</v>
       </c>
-      <c r="BJ6" s="11" t="s">
+      <c r="BK6" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="BK6" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="BL6" s="11" t="s">
         <v>153</v>
       </c>
       <c r="BM6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BN6" s="40" t="s">
+      <c r="BO6" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="BO6" s="32" t="s">
+      <c r="BP6" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="BP6" s="32" t="s">
+      <c r="BQ6" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="BQ6" s="32" t="s">
+      <c r="BR6" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="BR6" s="11" t="s">
+      <c r="BS6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BS6" s="11">
+      <c r="BT6" s="11">
         <v>2</v>
       </c>
-      <c r="BT6" s="11">
+      <c r="BU6" s="11">
         <v>2560</v>
       </c>
-      <c r="BU6" s="12" t="s">
+      <c r="BV6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="BX6" s="44"/>
-      <c r="CF6" s="44"/>
-      <c r="CQ6" s="44"/>
+      <c r="BY6" s="44"/>
+      <c r="CG6" s="44"/>
       <c r="CR6" s="44"/>
       <c r="CS6" s="44"/>
       <c r="CT6" s="44"/>
@@ -3677,158 +3717,159 @@
       <c r="DD6" s="44"/>
       <c r="DE6" s="44"/>
       <c r="DF6" s="44"/>
+      <c r="DG6" s="44"/>
     </row>
-    <row r="7" spans="1:145" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="41" t="s">
+    <row r="7" spans="1:146" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>400</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="13"/>
+      <c r="P7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="Q7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="R7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="S7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="U7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U7" s="13">
+      <c r="V7" s="13">
         <v>72601</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="W7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="X7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="Y7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Z7" s="13">
         <v>1234567890</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="AA7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AB7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AC7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AD7" s="13">
         <v>10005</v>
       </c>
-      <c r="AD7" s="13" t="s">
+      <c r="AE7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AF7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AG7" s="13">
         <v>150067600</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AH7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AH7" s="13" t="s">
+      <c r="AI7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AI7" s="13">
+      <c r="AJ7" s="13">
         <v>630081440</v>
       </c>
-      <c r="AJ7" s="13" t="s">
+      <c r="AK7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AK7" s="13" t="s">
+      <c r="AL7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AL7" s="13" t="s">
+      <c r="AM7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AM7" s="13" t="s">
+      <c r="AN7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AN7" s="13" t="s">
+      <c r="AO7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AO7" s="13">
+      <c r="AP7" s="13">
         <v>72601</v>
       </c>
-      <c r="AP7" s="13" t="s">
+      <c r="AQ7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AQ7" s="13" t="s">
+      <c r="AR7" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="AR7" s="13" t="s">
+      <c r="AS7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AS7" s="13" t="s">
+      <c r="AT7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AT7" s="13">
+      <c r="AU7" s="13">
         <v>2560</v>
       </c>
-      <c r="AU7" s="13">
+      <c r="AV7" s="13">
         <v>2</v>
       </c>
-      <c r="AV7" s="13" t="s">
+      <c r="AW7" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="AW7" s="13" t="s">
+      <c r="AX7" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AX7" s="13">
+      <c r="AY7" s="13">
         <v>1</v>
       </c>
-      <c r="AY7" s="13" t="s">
+      <c r="AZ7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AZ7" s="13">
+      <c r="BA7" s="13">
         <v>150</v>
-      </c>
-      <c r="BA7" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="BB7" s="13" t="s">
         <v>153</v>
@@ -3837,25 +3878,25 @@
         <v>153</v>
       </c>
       <c r="BD7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BE7" s="13" t="s">
+      <c r="BF7" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="BF7" s="13" t="s">
+      <c r="BG7" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="BG7" s="13">
+      <c r="BH7" s="13">
         <v>1</v>
       </c>
-      <c r="BH7" s="13" t="s">
+      <c r="BI7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BI7" s="13">
+      <c r="BJ7" s="13">
         <v>150</v>
-      </c>
-      <c r="BJ7" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="BK7" s="13" t="s">
         <v>153</v>
@@ -3864,35 +3905,37 @@
         <v>153</v>
       </c>
       <c r="BM7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BN7" s="42" t="s">
+      <c r="BO7" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="BO7" s="43" t="s">
+      <c r="BP7" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="BP7" s="43" t="s">
+      <c r="BQ7" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="BQ7" s="43" t="s">
+      <c r="BR7" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="BR7" s="13" t="s">
+      <c r="BS7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BS7" s="13">
+      <c r="BT7" s="13">
         <v>2</v>
       </c>
-      <c r="BT7" s="13">
+      <c r="BU7" s="13">
         <v>2560</v>
       </c>
-      <c r="BU7" s="14" t="s">
+      <c r="BV7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="BX7" s="44"/>
-      <c r="CF7" s="44"/>
-      <c r="CQ7" s="44"/>
+      <c r="BY7" s="44"/>
+      <c r="CG7" s="44"/>
       <c r="CR7" s="44"/>
       <c r="CS7" s="44"/>
       <c r="CT7" s="44"/>
@@ -3908,9 +3951,9 @@
       <c r="DD7" s="44"/>
       <c r="DE7" s="44"/>
       <c r="DF7" s="44"/>
+      <c r="DG7" s="44"/>
     </row>
-    <row r="8" spans="1:145" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:146" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3983,7 +4026,7 @@
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
       <c r="BW8" s="3"/>
-      <c r="BX8" s="4"/>
+      <c r="BX8" s="3"/>
       <c r="BY8" s="4"/>
       <c r="BZ8" s="4"/>
       <c r="CA8" s="4"/>
@@ -4022,26 +4065,27 @@
       <c r="DH8" s="4"/>
       <c r="DI8" s="4"/>
       <c r="DJ8" s="4"/>
+      <c r="DK8" s="4"/>
     </row>
-    <row r="9" spans="1:145" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:146" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="45" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="22" t="s">
@@ -4050,29 +4094,29 @@
       <c r="J9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="30" t="s">
-        <v>101</v>
+      <c r="K9" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>154</v>
+      <c r="M9" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="22" t="s">
+      <c r="O9" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="17" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="22" t="s">
         <v>74</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="S9" s="22" t="s">
         <v>105</v>
@@ -4086,22 +4130,22 @@
       <c r="V9" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="W9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="X9" s="22" t="s">
+      <c r="W9" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" s="17" t="s">
         <v>44</v>
       </c>
       <c r="Y9" s="22" t="s">
         <v>44</v>
       </c>
       <c r="Z9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AA9" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB9" s="22" t="s">
+      <c r="AB9" s="23" t="s">
         <v>106</v>
       </c>
       <c r="AC9" s="22" t="s">
@@ -4111,7 +4155,7 @@
         <v>106</v>
       </c>
       <c r="AE9" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AF9" s="22" t="s">
         <v>109</v>
@@ -4120,25 +4164,25 @@
         <v>109</v>
       </c>
       <c r="AH9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI9" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AI9" s="22" t="s">
+      <c r="AJ9" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="AJ9" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="AK9" s="17" t="s">
         <v>131</v>
       </c>
       <c r="AL9" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM9" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="AM9" s="17" t="s">
+      <c r="AN9" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="AN9" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="AO9" s="17" t="s">
         <v>134</v>
@@ -4147,22 +4191,22 @@
         <v>134</v>
       </c>
       <c r="AQ9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR9" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AR9" s="17" t="s">
+      <c r="AS9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="AS9" s="17" t="s">
+      <c r="AT9" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="AT9" s="17" t="s">
+      <c r="AU9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AU9" s="17" t="s">
+      <c r="AV9" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="AV9" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="AW9" s="17" t="s">
         <v>138</v>
@@ -4171,13 +4215,13 @@
         <v>138</v>
       </c>
       <c r="AY9" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AZ9" s="17" t="s">
         <v>139</v>
       </c>
       <c r="BA9" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BB9" s="17" t="s">
         <v>140</v>
@@ -4189,67 +4233,67 @@
         <v>140</v>
       </c>
       <c r="BE9" s="17" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="BF9" s="17" t="s">
         <v>114</v>
       </c>
       <c r="BG9" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="BH9" s="17" t="s">
+      <c r="BI9" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="BI9" s="17" t="s">
+      <c r="BJ9" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="BJ9" s="17" t="s">
+      <c r="BK9" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="BK9" s="17" t="s">
+      <c r="BL9" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="BL9" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="BM9" s="17" t="s">
         <v>119</v>
       </c>
       <c r="BN9" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BO9" s="17" t="s">
         <v>120</v>
       </c>
       <c r="BP9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ9" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ9" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="BR9" s="17" t="s">
         <v>122</v>
       </c>
       <c r="BS9" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BT9" s="17" t="s">
         <v>123</v>
       </c>
       <c r="BU9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV9" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="BV9" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="BW9" s="17" t="s">
         <v>124</v>
       </c>
       <c r="BX9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY9" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="BY9" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="BZ9" s="17" t="s">
         <v>125</v>
@@ -4258,31 +4302,31 @@
         <v>125</v>
       </c>
       <c r="CB9" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CC9" s="17" t="s">
         <v>126</v>
       </c>
       <c r="CD9" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CE9" s="17" t="s">
         <v>125</v>
       </c>
       <c r="CF9" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CG9" s="17" t="s">
         <v>127</v>
       </c>
       <c r="CH9" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CI9" s="17" t="s">
         <v>128</v>
       </c>
       <c r="CJ9" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CK9" s="17" t="s">
         <v>129</v>
@@ -4294,18 +4338,20 @@
         <v>129</v>
       </c>
       <c r="CN9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="CO9" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="CO9" s="17" t="s">
+      <c r="CP9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="CP9" s="17" t="s">
+      <c r="CQ9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="CQ9" s="18" t="s">
+      <c r="CR9" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="CR9" s="20"/>
       <c r="CS9" s="20"/>
       <c r="CT9" s="20"/>
       <c r="CU9" s="20"/>
@@ -4325,7 +4371,7 @@
       <c r="DI9" s="20"/>
       <c r="DJ9" s="20"/>
       <c r="DK9" s="20"/>
-      <c r="DL9" s="19"/>
+      <c r="DL9" s="20"/>
       <c r="DM9" s="19"/>
       <c r="DN9" s="19"/>
       <c r="DO9" s="19"/>
@@ -4336,7 +4382,7 @@
       <c r="DT9" s="19"/>
       <c r="DU9" s="19"/>
       <c r="DV9" s="19"/>
-      <c r="DW9" s="27"/>
+      <c r="DW9" s="19"/>
       <c r="DX9" s="27"/>
       <c r="DY9" s="27"/>
       <c r="DZ9" s="27"/>
@@ -4355,286 +4401,287 @@
       <c r="EM9" s="27"/>
       <c r="EN9" s="27"/>
       <c r="EO9" s="27"/>
+      <c r="EP9" s="27"/>
     </row>
-    <row r="10" spans="1:145" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:146" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="H10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="S10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="U10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="V10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="X10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="Y10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Z10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="7" t="s">
+      <c r="AA10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AB10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AC10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AD10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AE10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AH10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AI10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI10" s="7" t="s">
+      <c r="AJ10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AK10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AK10" s="7" t="s">
+      <c r="AL10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AM10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AN10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AO10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AO10" s="7" t="s">
+      <c r="AP10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AP10" s="7" t="s">
+      <c r="AQ10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AQ10" s="7" t="s">
+      <c r="AR10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AR10" s="7" t="s">
+      <c r="AS10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AS10" s="7" t="s">
+      <c r="AT10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AT10" s="7" t="s">
+      <c r="AU10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AU10" s="7" t="s">
+      <c r="AV10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AV10" s="7" t="s">
+      <c r="AW10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AW10" s="7" t="s">
+      <c r="AX10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AX10" s="7" t="s">
+      <c r="AY10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AY10" s="7" t="s">
+      <c r="AZ10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AZ10" s="7" t="s">
+      <c r="BA10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BA10" s="7" t="s">
+      <c r="BB10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BB10" s="7" t="s">
+      <c r="BC10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BC10" s="7" t="s">
+      <c r="BD10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BD10" s="7" t="s">
+      <c r="BE10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="BE10" s="15" t="s">
+      <c r="BF10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="BF10" s="15" t="s">
+      <c r="BG10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BG10" s="15" t="s">
+      <c r="BH10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="BH10" s="15" t="s">
+      <c r="BI10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="BI10" s="15" t="s">
+      <c r="BJ10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="BJ10" s="15" t="s">
+      <c r="BK10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="BK10" s="15" t="s">
+      <c r="BL10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="BL10" s="15" t="s">
+      <c r="BM10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BM10" s="15" t="s">
+      <c r="BN10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BN10" s="15" t="s">
+      <c r="BO10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BO10" s="15" t="s">
+      <c r="BP10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BP10" s="15" t="s">
+      <c r="BQ10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BQ10" s="15" t="s">
+      <c r="BR10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BR10" s="15" t="s">
+      <c r="BS10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BS10" s="15" t="s">
+      <c r="BT10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT10" s="15" t="s">
+      <c r="BU10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BU10" s="15" t="s">
+      <c r="BV10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BV10" s="15" t="s">
+      <c r="BW10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BW10" s="15" t="s">
+      <c r="BX10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BX10" s="15" t="s">
+      <c r="BY10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="BY10" s="15" t="s">
+      <c r="BZ10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="BZ10" s="15" t="s">
+      <c r="CA10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CA10" s="15" t="s">
+      <c r="CB10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="CB10" s="15" t="s">
+      <c r="CC10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="CC10" s="15" t="s">
+      <c r="CD10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="CD10" s="15" t="s">
+      <c r="CE10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="CE10" s="15" t="s">
+      <c r="CF10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="CF10" s="15" t="s">
+      <c r="CG10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="CG10" s="15" t="s">
+      <c r="CH10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="CH10" s="15" t="s">
+      <c r="CI10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="CI10" s="15" t="s">
+      <c r="CJ10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="CJ10" s="8" t="s">
+      <c r="CK10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="CK10" s="8" t="s">
+      <c r="CL10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="CL10" s="8" t="s">
+      <c r="CM10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="CM10" s="8" t="s">
+      <c r="CN10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CO10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CP10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CQ10" s="9" t="s">
+      <c r="CR10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CR10" s="2"/>
       <c r="CS10" s="2"/>
       <c r="CT10" s="2"/>
       <c r="CU10" s="2"/>
@@ -4654,7 +4701,7 @@
       <c r="DI10" s="2"/>
       <c r="DJ10" s="2"/>
       <c r="DK10" s="2"/>
-      <c r="DL10" s="47"/>
+      <c r="DL10" s="2"/>
       <c r="DM10" s="47"/>
       <c r="DN10" s="47"/>
       <c r="DO10" s="47"/>
@@ -4662,167 +4709,168 @@
       <c r="DQ10" s="47"/>
       <c r="DR10" s="47"/>
       <c r="DS10" s="47"/>
-      <c r="DT10" s="2"/>
+      <c r="DT10" s="47"/>
       <c r="DU10" s="2"/>
       <c r="DV10" s="2"/>
+      <c r="DW10" s="2"/>
     </row>
-    <row r="11" spans="1:145" s="26" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:146" s="26" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="76" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="C11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="E11" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="G11" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="J11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="K11" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="L11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="29">
+      <c r="M11" s="29">
         <v>150</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="N11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="29">
+      <c r="O11" s="29">
         <v>2560</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="P11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="Q11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="R11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="29" t="s">
+      <c r="S11" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="S11" s="29" t="s">
+      <c r="T11" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="T11" s="29" t="s">
+      <c r="U11" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="U11" s="29">
+      <c r="V11" s="29">
         <v>72601</v>
       </c>
-      <c r="V11" s="29" t="s">
+      <c r="W11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="W11" s="29" t="s">
+      <c r="X11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="X11" s="29" t="s">
+      <c r="Y11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Z11" s="29">
         <v>1234567890</v>
       </c>
-      <c r="Z11" s="29" t="s">
+      <c r="AA11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AA11" s="29" t="s">
+      <c r="AB11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AB11" s="29" t="s">
+      <c r="AC11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AC11" s="29" t="s">
+      <c r="AD11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AD11" s="29" t="s">
+      <c r="AE11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AE11" s="29" t="s">
+      <c r="AF11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AF11" s="29">
+      <c r="AG11" s="29">
         <v>150067600</v>
       </c>
-      <c r="AG11" s="29" t="s">
+      <c r="AH11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AH11" s="29" t="s">
+      <c r="AI11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AI11" s="29">
+      <c r="AJ11" s="29">
         <v>630081440</v>
       </c>
-      <c r="AJ11" s="29" t="s">
+      <c r="AK11" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AK11" s="29" t="s">
+      <c r="AL11" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AL11" s="29" t="s">
+      <c r="AM11" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AM11" s="29" t="s">
+      <c r="AN11" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="AN11" s="29" t="s">
+      <c r="AO11" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AO11" s="29">
+      <c r="AP11" s="29">
         <v>72601</v>
       </c>
-      <c r="AP11" s="29" t="s">
+      <c r="AQ11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AQ11" s="29" t="s">
+      <c r="AR11" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="AR11" s="29" t="s">
+      <c r="AS11" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="AS11" s="29" t="s">
+      <c r="AT11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AT11" s="29">
+      <c r="AU11" s="29">
         <v>2560</v>
       </c>
-      <c r="AU11" s="29">
+      <c r="AV11" s="29">
         <v>1</v>
       </c>
-      <c r="AV11" s="29" t="s">
+      <c r="AW11" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AW11" s="29" t="s">
+      <c r="AX11" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AX11" s="29">
+      <c r="AY11" s="29">
         <v>1</v>
       </c>
-      <c r="AY11" s="29" t="s">
+      <c r="AZ11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AZ11" s="29">
+      <c r="BA11" s="29">
         <v>150</v>
-      </c>
-      <c r="BA11" s="29">
-        <v>90</v>
       </c>
       <c r="BB11" s="29">
         <v>90</v>
@@ -4830,125 +4878,127 @@
       <c r="BC11" s="29">
         <v>90</v>
       </c>
-      <c r="BD11" s="29" t="s">
+      <c r="BD11" s="29">
+        <v>90</v>
+      </c>
+      <c r="BE11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="BE11" s="29" t="s">
+      <c r="BF11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BF11" s="29">
+      <c r="BG11" s="29">
         <v>12345678</v>
       </c>
-      <c r="BG11" s="29" t="s">
+      <c r="BH11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="BH11" s="29">
+      <c r="BI11" s="29">
         <v>150067600</v>
       </c>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="29" t="s">
+      <c r="BJ11" s="29"/>
+      <c r="BK11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BK11" s="29" t="s">
+      <c r="BL11" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="BL11" s="29" t="s">
+      <c r="BM11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BM11" s="29">
+      <c r="BN11" s="29">
         <v>2560</v>
       </c>
-      <c r="BN11" s="29" t="s">
+      <c r="BO11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BO11" s="29">
+      <c r="BP11" s="29">
         <v>200</v>
       </c>
-      <c r="BP11" s="29" t="s">
+      <c r="BQ11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="BQ11" s="29" t="s">
+      <c r="BR11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BR11" s="29">
+      <c r="BS11" s="29">
         <v>100</v>
       </c>
-      <c r="BS11" s="29" t="s">
+      <c r="BT11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BT11" s="29">
+      <c r="BU11" s="29">
         <v>25</v>
       </c>
-      <c r="BU11" s="29" t="s">
+      <c r="BV11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BV11" s="29" t="s">
+      <c r="BW11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BW11" s="29">
+      <c r="BX11" s="29">
         <v>123456789</v>
       </c>
-      <c r="BX11" s="29" t="s">
+      <c r="BY11" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="BY11" s="29">
+      <c r="BZ11" s="29">
         <v>1</v>
       </c>
-      <c r="BZ11" s="29" t="s">
+      <c r="CA11" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="CA11" s="29" t="s">
+      <c r="CB11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CB11" s="29" t="s">
+      <c r="CC11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="CC11" s="29">
+      <c r="CD11" s="29">
         <v>150</v>
       </c>
-      <c r="CD11" s="29">
+      <c r="CE11" s="29">
         <v>1</v>
       </c>
-      <c r="CE11" s="29" t="s">
+      <c r="CF11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="CF11" s="29" t="s">
+      <c r="CG11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CG11" s="29">
+      <c r="CH11" s="29">
         <v>2560</v>
       </c>
-      <c r="CH11" s="29" t="s">
+      <c r="CI11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CI11" s="29">
+      <c r="CJ11" s="29">
         <v>2560</v>
       </c>
-      <c r="CJ11" s="36" t="s">
+      <c r="CK11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="CK11" s="37" t="s">
+      <c r="CL11" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="CL11" s="37" t="s">
+      <c r="CM11" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="CM11" s="37" t="s">
+      <c r="CN11" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="CN11" s="29" t="s">
+      <c r="CO11" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CO11" s="29">
+      <c r="CP11" s="29">
         <v>1</v>
       </c>
-      <c r="CP11" s="29">
+      <c r="CQ11" s="29">
         <v>2560</v>
       </c>
-      <c r="CQ11" s="38" t="s">
+      <c r="CR11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="CR11" s="10"/>
       <c r="CS11" s="10"/>
       <c r="CT11" s="10"/>
       <c r="CU11" s="10"/>
@@ -4968,18 +5018,18 @@
       <c r="DI11" s="10"/>
       <c r="DJ11" s="10"/>
       <c r="DK11" s="10"/>
-      <c r="DL11" s="48"/>
-      <c r="DM11" s="49"/>
+      <c r="DL11" s="10"/>
+      <c r="DM11" s="48"/>
       <c r="DN11" s="49"/>
       <c r="DO11" s="49"/>
       <c r="DP11" s="49"/>
       <c r="DQ11" s="49"/>
       <c r="DR11" s="49"/>
       <c r="DS11" s="49"/>
-      <c r="DT11" s="44"/>
+      <c r="DT11" s="49"/>
       <c r="DU11" s="44"/>
       <c r="DV11" s="44"/>
-      <c r="DW11" s="28"/>
+      <c r="DW11" s="44"/>
       <c r="DX11" s="28"/>
       <c r="DY11" s="28"/>
       <c r="DZ11" s="28"/>
@@ -4998,160 +5048,161 @@
       <c r="EM11" s="28"/>
       <c r="EN11" s="28"/>
       <c r="EO11" s="28"/>
+      <c r="EP11" s="28"/>
     </row>
-    <row r="12" spans="1:145" s="26" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="41" t="s">
+    <row r="12" spans="1:146" s="26" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="E12" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="L12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="13">
+      <c r="M12" s="13">
         <v>150</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="N12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="13">
+      <c r="O12" s="13">
         <v>2560</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="P12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="Q12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="R12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="S12" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="T12" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="U12" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U12" s="13">
+      <c r="V12" s="13">
         <v>72601</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="W12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="X12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="Y12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Z12" s="13">
         <v>1234567890</v>
       </c>
-      <c r="Z12" s="13" t="s">
+      <c r="AA12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AB12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AB12" s="13" t="s">
+      <c r="AC12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AC12" s="13" t="s">
+      <c r="AD12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AE12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AF12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AG12" s="13">
         <v>150067600</v>
       </c>
-      <c r="AG12" s="13" t="s">
+      <c r="AH12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AH12" s="13" t="s">
+      <c r="AI12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AI12" s="13">
+      <c r="AJ12" s="13">
         <v>630081440</v>
       </c>
-      <c r="AJ12" s="13" t="s">
+      <c r="AK12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AK12" s="13" t="s">
+      <c r="AL12" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AL12" s="13" t="s">
+      <c r="AM12" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AM12" s="13" t="s">
+      <c r="AN12" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AN12" s="13" t="s">
+      <c r="AO12" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AO12" s="13">
+      <c r="AP12" s="13">
         <v>72601</v>
       </c>
-      <c r="AP12" s="13" t="s">
+      <c r="AQ12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AQ12" s="13" t="s">
+      <c r="AR12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="AR12" s="13" t="s">
+      <c r="AS12" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AS12" s="13" t="s">
+      <c r="AT12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AT12" s="13">
+      <c r="AU12" s="13">
         <v>2560</v>
       </c>
-      <c r="AU12" s="13">
+      <c r="AV12" s="13">
         <v>1</v>
       </c>
-      <c r="AV12" s="13" t="s">
+      <c r="AW12" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="AW12" s="13" t="s">
+      <c r="AX12" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AX12" s="13">
+      <c r="AY12" s="13">
         <v>1</v>
       </c>
-      <c r="AY12" s="13" t="s">
+      <c r="AZ12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AZ12" s="13">
+      <c r="BA12" s="13">
         <v>150</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>90</v>
       </c>
       <c r="BB12" s="13">
         <v>90</v>
@@ -5159,125 +5210,127 @@
       <c r="BC12" s="13">
         <v>90</v>
       </c>
-      <c r="BD12" s="13" t="s">
+      <c r="BD12" s="13">
+        <v>90</v>
+      </c>
+      <c r="BE12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BE12" s="13" t="s">
+      <c r="BF12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BF12" s="13">
+      <c r="BG12" s="13">
         <v>12345678</v>
       </c>
-      <c r="BG12" s="13" t="s">
+      <c r="BH12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="BH12" s="13">
+      <c r="BI12" s="13">
         <v>150067600</v>
       </c>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13" t="s">
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="BK12" s="13" t="s">
+      <c r="BL12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="BL12" s="13" t="s">
+      <c r="BM12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BM12" s="13">
+      <c r="BN12" s="13">
         <v>2560</v>
       </c>
-      <c r="BN12" s="13" t="s">
+      <c r="BO12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BO12" s="13">
+      <c r="BP12" s="13">
         <v>50</v>
       </c>
-      <c r="BP12" s="13" t="s">
+      <c r="BQ12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="BQ12" s="13" t="s">
+      <c r="BR12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BR12" s="13">
+      <c r="BS12" s="13">
         <v>100</v>
       </c>
-      <c r="BS12" s="13" t="s">
+      <c r="BT12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BT12" s="13">
+      <c r="BU12" s="13">
         <v>25</v>
       </c>
-      <c r="BU12" s="13" t="s">
+      <c r="BV12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BV12" s="13" t="s">
+      <c r="BW12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="BW12" s="13">
+      <c r="BX12" s="13">
         <v>123456789</v>
       </c>
-      <c r="BX12" s="13" t="s">
+      <c r="BY12" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="BY12" s="13">
+      <c r="BZ12" s="13">
         <v>1</v>
       </c>
-      <c r="BZ12" s="13" t="s">
+      <c r="CA12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="CA12" s="13" t="s">
+      <c r="CB12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CB12" s="13" t="s">
+      <c r="CC12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="CC12" s="13">
+      <c r="CD12" s="13">
         <v>150</v>
       </c>
-      <c r="CD12" s="13">
+      <c r="CE12" s="13">
         <v>1</v>
       </c>
-      <c r="CE12" s="13" t="s">
+      <c r="CF12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="CF12" s="13" t="s">
+      <c r="CG12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CG12" s="13">
+      <c r="CH12" s="13">
         <v>2560</v>
       </c>
-      <c r="CH12" s="13" t="s">
+      <c r="CI12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CI12" s="13">
+      <c r="CJ12" s="13">
         <v>2560</v>
       </c>
-      <c r="CJ12" s="42" t="s">
+      <c r="CK12" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="CK12" s="43" t="s">
+      <c r="CL12" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="CL12" s="43" t="s">
+      <c r="CM12" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="CM12" s="43" t="s">
+      <c r="CN12" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="CN12" s="13" t="s">
+      <c r="CO12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="CO12" s="13">
+      <c r="CP12" s="13">
         <v>1</v>
       </c>
-      <c r="CP12" s="13">
+      <c r="CQ12" s="13">
         <v>2560</v>
       </c>
-      <c r="CQ12" s="14" t="s">
+      <c r="CR12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="CR12" s="10"/>
       <c r="CS12" s="10"/>
       <c r="CT12" s="10"/>
       <c r="CU12" s="10"/>
@@ -5297,18 +5350,18 @@
       <c r="DI12" s="10"/>
       <c r="DJ12" s="10"/>
       <c r="DK12" s="10"/>
-      <c r="DL12" s="48"/>
-      <c r="DM12" s="49"/>
+      <c r="DL12" s="10"/>
+      <c r="DM12" s="48"/>
       <c r="DN12" s="49"/>
       <c r="DO12" s="49"/>
       <c r="DP12" s="49"/>
       <c r="DQ12" s="49"/>
       <c r="DR12" s="49"/>
       <c r="DS12" s="49"/>
-      <c r="DT12" s="44"/>
+      <c r="DT12" s="49"/>
       <c r="DU12" s="44"/>
       <c r="DV12" s="44"/>
-      <c r="DW12" s="28"/>
+      <c r="DW12" s="44"/>
       <c r="DX12" s="28"/>
       <c r="DY12" s="28"/>
       <c r="DZ12" s="28"/>
@@ -5327,13 +5380,14 @@
       <c r="EM12" s="28"/>
       <c r="EN12" s="28"/>
       <c r="EO12" s="28"/>
+      <c r="EP12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
